--- a/a.xlsx
+++ b/a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoushin/Documents/0000_Project/survey-peng/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B137CAD1-A807-1847-B548-134DBF775B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5BF52D-5FAB-104C-95FE-171193C7ABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="780" windowWidth="16100" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17240" yWindow="4260" windowWidth="16100" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -17550,9 +17550,6 @@
     <t>&lt;u&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;/u&gt;：それは&lt;u&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;/u&gt;。</t>
   </si>
   <si>
-    <t>&lt;u&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;/u&gt;：&lt;u&gt;それは&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;/u&gt;。</t>
-  </si>
-  <si>
     <t>&lt;u&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;/u&gt;：これは一種の&lt;u&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;/u&gt;だ。</t>
     <rPh sb="61" eb="62">
       <t>いっ</t>
@@ -18650,6 +18647,10 @@
   </si>
   <si>
     <t>correct</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;u&gt;&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;/u&gt;：&lt;u&gt;それは&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&amp;nbsp&lt;/u&gt;。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -18657,7 +18658,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -18869,6 +18870,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -18908,7 +18915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -19000,9 +19007,6 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -19010,6 +19014,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -19292,14 +19305,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="51.140625" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="125.140625" style="30" customWidth="1"/>
     <col min="4" max="4" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="46.85546875" style="9" customWidth="1"/>
     <col min="6" max="6" width="40.140625" style="9" customWidth="1"/>
@@ -19381,24 +19394,24 @@
         <v>624</v>
       </c>
       <c r="C3" s="25" t="s" ph="1">
-        <v>779</v>
-      </c>
-      <c r="D3" s="35" t="s">
+        <v>908</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="40" t="s">
         <v>626</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="32" t="s">
         <v>644</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="41" t="s">
         <v>627</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="42" t="s">
         <v>596</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -19412,8 +19425,8 @@
       <c r="B4" s="4" t="s" ph="1">
         <v>484</v>
       </c>
-      <c r="C4" s="40" t="s" ph="1">
-        <v>780</v>
+      <c r="C4" s="39" t="s" ph="1">
+        <v>779</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>7</v>
@@ -19445,7 +19458,7 @@
         <v>485</v>
       </c>
       <c r="C5" s="25" t="s" ph="1">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>646</v>
@@ -19477,7 +19490,7 @@
         <v>486</v>
       </c>
       <c r="C6" s="25" t="s" ph="1">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>647</v>
@@ -19509,7 +19522,7 @@
         <v>487</v>
       </c>
       <c r="C7" s="25" t="s" ph="1">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>648</v>
@@ -19541,7 +19554,7 @@
         <v>488</v>
       </c>
       <c r="C8" s="25" t="s" ph="1">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>653</v>
@@ -19573,7 +19586,7 @@
         <v>489</v>
       </c>
       <c r="C9" s="25" t="s" ph="1">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>471</v>
@@ -19605,7 +19618,7 @@
         <v>490</v>
       </c>
       <c r="C10" s="25" t="s" ph="1">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>467</v>
@@ -19637,7 +19650,7 @@
         <v>491</v>
       </c>
       <c r="C11" s="25" t="s" ph="1">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>465</v>
@@ -19669,7 +19682,7 @@
         <v>492</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>463</v>
@@ -19701,7 +19714,7 @@
         <v>633</v>
       </c>
       <c r="C13" s="25" t="s" ph="1">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>613</v>
@@ -19733,7 +19746,7 @@
         <v>598</v>
       </c>
       <c r="C14" s="25" t="s" ph="1">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>665</v>
@@ -19765,7 +19778,7 @@
         <v>493</v>
       </c>
       <c r="C15" s="25" t="s" ph="1">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>663</v>
@@ -19797,7 +19810,7 @@
         <v>494</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>666</v>
@@ -19829,7 +19842,7 @@
         <v>495</v>
       </c>
       <c r="C17" s="25" t="s" ph="1">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>670</v>
@@ -19861,7 +19874,7 @@
         <v>496</v>
       </c>
       <c r="C18" s="25" t="s" ph="1">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>671</v>
@@ -19893,7 +19906,7 @@
         <v>497</v>
       </c>
       <c r="C19" s="25" t="s" ph="1">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>449</v>
@@ -19925,7 +19938,7 @@
         <v>599</v>
       </c>
       <c r="C20" s="25" t="s" ph="1">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>675</v>
@@ -19957,7 +19970,7 @@
         <v>498</v>
       </c>
       <c r="C21" s="25" t="s" ph="1">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>676</v>
@@ -19965,7 +19978,7 @@
       <c r="E21" s="32" t="s">
         <v>677</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="37" t="s">
         <v>678</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -19989,7 +20002,7 @@
         <v>499</v>
       </c>
       <c r="C22" s="25" t="s" ph="1">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>444</v>
@@ -20021,7 +20034,7 @@
         <v>500</v>
       </c>
       <c r="C23" s="27" t="s" ph="1">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>681</v>
@@ -20053,7 +20066,7 @@
         <v>501</v>
       </c>
       <c r="C24" s="25" t="s" ph="1">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>439</v>
@@ -20085,7 +20098,7 @@
         <v>502</v>
       </c>
       <c r="C25" s="25" t="s" ph="1">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>684</v>
@@ -20117,7 +20130,7 @@
         <v>503</v>
       </c>
       <c r="C26" s="25" t="s" ph="1">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>435</v>
@@ -20149,7 +20162,7 @@
         <v>504</v>
       </c>
       <c r="C27" s="25" t="s" ph="1">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>688</v>
@@ -20181,7 +20194,7 @@
         <v>505</v>
       </c>
       <c r="C28" s="25" t="s" ph="1">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>312</v>
@@ -20213,7 +20226,7 @@
         <v>506</v>
       </c>
       <c r="C29" s="25" t="s" ph="1">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>692</v>
@@ -20245,7 +20258,7 @@
         <v>507</v>
       </c>
       <c r="C30" s="25" t="s" ph="1">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D30" s="32" t="s">
         <v>693</v>
@@ -20277,7 +20290,7 @@
         <v>508</v>
       </c>
       <c r="C31" s="25" t="s" ph="1">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>303</v>
@@ -20309,7 +20322,7 @@
         <v>509</v>
       </c>
       <c r="C32" s="25" t="s" ph="1">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>299</v>
@@ -20341,7 +20354,7 @@
         <v>510</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>296</v>
@@ -20373,7 +20386,7 @@
         <v>511</v>
       </c>
       <c r="C34" s="25" t="s" ph="1">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>294</v>
@@ -20405,7 +20418,7 @@
         <v>512</v>
       </c>
       <c r="C35" s="25" t="s" ph="1">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>698</v>
@@ -20437,7 +20450,7 @@
         <v>513</v>
       </c>
       <c r="C36" s="25" t="s" ph="1">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>700</v>
@@ -20469,7 +20482,7 @@
         <v>514</v>
       </c>
       <c r="C37" s="25" t="s" ph="1">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>286</v>
@@ -20501,7 +20514,7 @@
         <v>515</v>
       </c>
       <c r="C38" s="25" t="s" ph="1">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>282</v>
@@ -20533,7 +20546,7 @@
         <v>629</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>641</v>
@@ -20565,7 +20578,7 @@
         <v>517</v>
       </c>
       <c r="C40" s="25" t="s" ph="1">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>703</v>
@@ -20597,7 +20610,7 @@
         <v>516</v>
       </c>
       <c r="C41" s="25" t="s" ph="1">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>276</v>
@@ -20629,7 +20642,7 @@
         <v>518</v>
       </c>
       <c r="C42" s="25" t="s" ph="1">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>274</v>
@@ -20661,7 +20674,7 @@
         <v>519</v>
       </c>
       <c r="C43" s="25" t="s" ph="1">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>708</v>
@@ -20693,7 +20706,7 @@
         <v>520</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>269</v>
@@ -20725,7 +20738,7 @@
         <v>521</v>
       </c>
       <c r="C45" s="25" t="s" ph="1">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>266</v>
@@ -20757,7 +20770,7 @@
         <v>522</v>
       </c>
       <c r="C46" s="25" t="s" ph="1">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>711</v>
@@ -20789,7 +20802,7 @@
         <v>523</v>
       </c>
       <c r="C47" s="25" t="s" ph="1">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D47" s="33" t="s">
         <v>712</v>
@@ -20821,7 +20834,7 @@
         <v>524</v>
       </c>
       <c r="C48" s="25" t="s" ph="1">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>258</v>
@@ -20853,7 +20866,7 @@
         <v>525</v>
       </c>
       <c r="C49" s="25" t="s" ph="1">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>715</v>
@@ -20885,7 +20898,7 @@
         <v>526</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>253</v>
@@ -20917,7 +20930,7 @@
         <v>527</v>
       </c>
       <c r="C51" s="25" t="s" ph="1">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>250</v>
@@ -20949,7 +20962,7 @@
         <v>528</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>719</v>
@@ -20981,7 +20994,7 @@
         <v>529</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>618</v>
@@ -21013,7 +21026,7 @@
         <v>530</v>
       </c>
       <c r="C54" s="25" t="s" ph="1">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>241</v>
@@ -21045,7 +21058,7 @@
         <v>600</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>721</v>
@@ -21077,7 +21090,7 @@
         <v>634</v>
       </c>
       <c r="C56" s="25" t="s" ph="1">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>235</v>
@@ -21109,7 +21122,7 @@
         <v>531</v>
       </c>
       <c r="C57" s="25" t="s" ph="1">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>234</v>
@@ -21141,7 +21154,7 @@
         <v>532</v>
       </c>
       <c r="C58" s="25" t="s" ph="1">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>231</v>
@@ -21173,9 +21186,9 @@
         <v>533</v>
       </c>
       <c r="C59" s="25" t="s" ph="1">
-        <v>835</v>
-      </c>
-      <c r="D59" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="D59" s="37" t="s">
         <v>727</v>
       </c>
       <c r="E59" s="34" t="s">
@@ -21205,7 +21218,7 @@
         <v>535</v>
       </c>
       <c r="C60" s="25" t="s" ph="1">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>230</v>
@@ -21237,7 +21250,7 @@
         <v>534</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>734</v>
@@ -21269,7 +21282,7 @@
         <v>536</v>
       </c>
       <c r="C62" s="25" t="s" ph="1">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>736</v>
@@ -21301,7 +21314,7 @@
         <v>537</v>
       </c>
       <c r="C63" s="25" t="s" ph="1">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>221</v>
@@ -21333,7 +21346,7 @@
         <v>538</v>
       </c>
       <c r="C64" s="25" t="s" ph="1">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>737</v>
@@ -21365,7 +21378,7 @@
         <v>541</v>
       </c>
       <c r="C65" s="25" t="s" ph="1">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>216</v>
@@ -21397,7 +21410,7 @@
         <v>540</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>212</v>
@@ -21429,7 +21442,7 @@
         <v>635</v>
       </c>
       <c r="C67" s="25" t="s" ph="1">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>209</v>
@@ -21461,7 +21474,7 @@
         <v>631</v>
       </c>
       <c r="C68" s="25" t="s" ph="1">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>206</v>
@@ -21493,7 +21506,7 @@
         <v>539</v>
       </c>
       <c r="C69" s="25" t="s" ph="1">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>742</v>
@@ -21525,7 +21538,7 @@
         <v>636</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>201</v>
@@ -21557,7 +21570,7 @@
         <v>542</v>
       </c>
       <c r="C71" s="25" t="s" ph="1">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>745</v>
@@ -21589,7 +21602,7 @@
         <v>543</v>
       </c>
       <c r="C72" s="25" t="s" ph="1">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>196</v>
@@ -21621,7 +21634,7 @@
         <v>601</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>192</v>
@@ -21653,7 +21666,7 @@
         <v>544</v>
       </c>
       <c r="C74" s="25" t="s" ph="1">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>189</v>
@@ -21685,7 +21698,7 @@
         <v>545</v>
       </c>
       <c r="C75" s="25" t="s" ph="1">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>185</v>
@@ -21717,7 +21730,7 @@
         <v>546</v>
       </c>
       <c r="C76" s="25" t="s" ph="1">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D76" s="32" t="s">
         <v>749</v>
@@ -21749,7 +21762,7 @@
         <v>547</v>
       </c>
       <c r="C77" s="25" t="s" ph="1">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>179</v>
@@ -21781,7 +21794,7 @@
         <v>630</v>
       </c>
       <c r="C78" s="25" t="s" ph="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>175</v>
@@ -21813,7 +21826,7 @@
         <v>549</v>
       </c>
       <c r="C79" s="25" t="s" ph="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>620</v>
@@ -21845,7 +21858,7 @@
         <v>548</v>
       </c>
       <c r="C80" s="25" t="s" ph="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>751</v>
@@ -21877,7 +21890,7 @@
         <v>550</v>
       </c>
       <c r="C81" s="25" t="s" ph="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>163</v>
@@ -21909,7 +21922,7 @@
         <v>621</v>
       </c>
       <c r="C82" s="25" t="s" ph="1">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>160</v>
@@ -21941,7 +21954,7 @@
         <v>551</v>
       </c>
       <c r="C83" s="25" t="s" ph="1">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>753</v>
@@ -21973,7 +21986,7 @@
         <v>552</v>
       </c>
       <c r="C84" s="25" t="s" ph="1">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>154</v>
@@ -22005,7 +22018,7 @@
         <v>553</v>
       </c>
       <c r="C85" s="25" t="s" ph="1">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D85" s="33" t="s">
         <v>755</v>
@@ -22037,7 +22050,7 @@
         <v>554</v>
       </c>
       <c r="C86" s="25" t="s" ph="1">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>147</v>
@@ -22069,7 +22082,7 @@
         <v>555</v>
       </c>
       <c r="C87" s="25" t="s" ph="1">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>143</v>
@@ -22101,7 +22114,7 @@
         <v>556</v>
       </c>
       <c r="C88" s="25" t="s" ph="1">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>139</v>
@@ -22133,7 +22146,7 @@
         <v>557</v>
       </c>
       <c r="C89" s="25" t="s" ph="1">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>137</v>
@@ -22144,7 +22157,7 @@
       <c r="F89" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="G89" s="39" t="s">
+      <c r="G89" s="38" t="s">
         <v>757</v>
       </c>
       <c r="H89" s="8" t="s">
@@ -22165,7 +22178,7 @@
         <v>602</v>
       </c>
       <c r="C90" s="25" t="s" ph="1">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>134</v>
@@ -22197,7 +22210,7 @@
         <v>558</v>
       </c>
       <c r="C91" s="25" t="s" ph="1">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>130</v>
@@ -22229,7 +22242,7 @@
         <v>559</v>
       </c>
       <c r="C92" s="25" t="s" ph="1">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>128</v>
@@ -22261,7 +22274,7 @@
         <v>560</v>
       </c>
       <c r="C93" s="25" t="s" ph="1">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>124</v>
@@ -22293,7 +22306,7 @@
         <v>561</v>
       </c>
       <c r="C94" s="25" t="s" ph="1">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>120</v>
@@ -22325,7 +22338,7 @@
         <v>603</v>
       </c>
       <c r="C95" s="25" t="s" ph="1">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>640</v>
@@ -22357,7 +22370,7 @@
         <v>562</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>117</v>
@@ -22389,7 +22402,7 @@
         <v>604</v>
       </c>
       <c r="C97" s="25" t="s" ph="1">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>113</v>
@@ -22421,7 +22434,7 @@
         <v>563</v>
       </c>
       <c r="C98" s="25" t="s" ph="1">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>109</v>
@@ -22453,7 +22466,7 @@
         <v>564</v>
       </c>
       <c r="C99" s="25" t="s" ph="1">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>106</v>
@@ -22485,7 +22498,7 @@
         <v>565</v>
       </c>
       <c r="C100" s="25" t="s" ph="1">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>102</v>
@@ -22517,7 +22530,7 @@
         <v>566</v>
       </c>
       <c r="C101" s="25" t="s" ph="1">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>763</v>
@@ -22549,7 +22562,7 @@
         <v>567</v>
       </c>
       <c r="C102" s="25" t="s" ph="1">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>98</v>
@@ -22581,7 +22594,7 @@
         <v>568</v>
       </c>
       <c r="C103" s="25" t="s" ph="1">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>94</v>
@@ -22613,7 +22626,7 @@
         <v>570</v>
       </c>
       <c r="C104" s="25" t="s" ph="1">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>90</v>
@@ -22645,7 +22658,7 @@
         <v>569</v>
       </c>
       <c r="C105" s="25" t="s" ph="1">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>86</v>
@@ -22677,7 +22690,7 @@
         <v>571</v>
       </c>
       <c r="C106" s="25" t="s" ph="1">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>82</v>
@@ -22709,7 +22722,7 @@
         <v>572</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>79</v>
@@ -22741,7 +22754,7 @@
         <v>573</v>
       </c>
       <c r="C108" s="25" t="s" ph="1">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>75</v>
@@ -22773,7 +22786,7 @@
         <v>574</v>
       </c>
       <c r="C109" s="25" t="s" ph="1">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>71</v>
@@ -22805,7 +22818,7 @@
         <v>591</v>
       </c>
       <c r="C110" s="29" t="s" ph="1">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>67</v>
@@ -22837,7 +22850,7 @@
         <v>575</v>
       </c>
       <c r="C111" s="25" t="s" ph="1">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>63</v>
@@ -22869,7 +22882,7 @@
         <v>576</v>
       </c>
       <c r="C112" s="25" t="s" ph="1">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>59</v>
@@ -22901,7 +22914,7 @@
         <v>577</v>
       </c>
       <c r="C113" s="25" t="s" ph="1">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>56</v>
@@ -22933,7 +22946,7 @@
         <v>578</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D114" s="33" t="s">
         <v>767</v>
@@ -22965,7 +22978,7 @@
         <v>579</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>615</v>
@@ -22997,7 +23010,7 @@
         <v>580</v>
       </c>
       <c r="C116" s="25" t="s" ph="1">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D116" s="18" t="s">
         <v>51</v>
@@ -23029,7 +23042,7 @@
         <v>581</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>47</v>
@@ -23061,7 +23074,7 @@
         <v>582</v>
       </c>
       <c r="C118" s="25" t="s" ph="1">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>43</v>
@@ -23093,7 +23106,7 @@
         <v>583</v>
       </c>
       <c r="C119" s="25" t="s" ph="1">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>41</v>
@@ -23101,7 +23114,7 @@
       <c r="E119" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="F119" s="39" t="s">
+      <c r="F119" s="38" t="s">
         <v>772</v>
       </c>
       <c r="G119" s="6" t="s">
@@ -23125,7 +23138,7 @@
         <v>584</v>
       </c>
       <c r="C120" s="25" t="s" ph="1">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>39</v>
@@ -23133,7 +23146,7 @@
       <c r="E120" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F120" s="38" t="s">
+      <c r="F120" s="37" t="s">
         <v>773</v>
       </c>
       <c r="G120" s="6" t="s">
@@ -23157,7 +23170,7 @@
         <v>632</v>
       </c>
       <c r="C121" s="25" t="s" ph="1">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>35</v>
@@ -23189,7 +23202,7 @@
         <v>586</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>34</v>
@@ -23221,7 +23234,7 @@
         <v>606</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>27</v>
@@ -23253,7 +23266,7 @@
         <v>585</v>
       </c>
       <c r="C124" s="25" t="s" ph="1">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>23</v>
@@ -23285,7 +23298,7 @@
         <v>590</v>
       </c>
       <c r="C125" s="29" t="s" ph="1">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>607</v>
@@ -23317,7 +23330,7 @@
         <v>587</v>
       </c>
       <c r="C126" s="25" t="s" ph="1">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D126" s="19" t="s">
         <v>18</v>
@@ -23349,7 +23362,7 @@
         <v>588</v>
       </c>
       <c r="C127" s="25" t="s" ph="1">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>14</v>
@@ -23381,7 +23394,7 @@
         <v>589</v>
       </c>
       <c r="C128" s="25" t="s" ph="1">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>11</v>
@@ -23415,7 +23428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510A7EF0-EF56-5346-B305-94087522098C}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -23433,10 +23446,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>905</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>906</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -23454,18 +23467,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s" ph="1">
-        <v>780</v>
+      <c r="B2" s="39" t="s" ph="1">
+        <v>779</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>7</v>
@@ -23494,7 +23507,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s" ph="1">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>646</v>
@@ -23523,7 +23536,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s" ph="1">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>647</v>
@@ -23552,7 +23565,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s" ph="1">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>648</v>
@@ -23581,7 +23594,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s" ph="1">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>653</v>
@@ -23610,7 +23623,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s" ph="1">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>471</v>
@@ -23639,7 +23652,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s" ph="1">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>467</v>
@@ -23668,7 +23681,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s" ph="1">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>465</v>
@@ -23697,7 +23710,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>463</v>
@@ -23726,7 +23739,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s" ph="1">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>613</v>
@@ -23755,7 +23768,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s" ph="1">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>665</v>
@@ -23784,7 +23797,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s" ph="1">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>663</v>
@@ -23813,7 +23826,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>666</v>
@@ -23842,7 +23855,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="s" ph="1">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>670</v>
@@ -23871,7 +23884,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s" ph="1">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>671</v>
@@ -23900,7 +23913,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="25" t="s" ph="1">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>449</v>
@@ -23929,7 +23942,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s" ph="1">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>675</v>
@@ -23958,7 +23971,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s" ph="1">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>676</v>
@@ -23966,7 +23979,7 @@
       <c r="D19" s="32" t="s">
         <v>677</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="37" t="s">
         <v>678</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -23987,7 +24000,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s" ph="1">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>444</v>
@@ -24016,7 +24029,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s" ph="1">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>681</v>
@@ -24045,7 +24058,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s" ph="1">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>439</v>
@@ -24074,7 +24087,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s" ph="1">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>684</v>
@@ -24103,7 +24116,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s" ph="1">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>435</v>
@@ -24132,7 +24145,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s" ph="1">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>688</v>
@@ -24161,7 +24174,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s" ph="1">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>312</v>
@@ -24190,7 +24203,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s" ph="1">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>692</v>
@@ -24219,7 +24232,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s" ph="1">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>693</v>
@@ -24248,7 +24261,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s" ph="1">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>303</v>
@@ -24277,7 +24290,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s" ph="1">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>299</v>
@@ -24306,7 +24319,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>296</v>
@@ -24335,7 +24348,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s" ph="1">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>294</v>
@@ -24364,7 +24377,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="25" t="s" ph="1">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>698</v>
@@ -24393,7 +24406,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="25" t="s" ph="1">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>700</v>
@@ -24422,7 +24435,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="25" t="s" ph="1">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>286</v>
@@ -24451,7 +24464,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="25" t="s" ph="1">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>282</v>
@@ -24480,7 +24493,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>641</v>
@@ -24509,7 +24522,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="25" t="s" ph="1">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>703</v>
@@ -24538,7 +24551,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="25" t="s" ph="1">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>276</v>
@@ -24567,7 +24580,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="25" t="s" ph="1">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>274</v>
@@ -24596,7 +24609,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="25" t="s" ph="1">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>708</v>
@@ -24625,7 +24638,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>269</v>
@@ -24654,7 +24667,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="25" t="s" ph="1">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>266</v>
@@ -24683,7 +24696,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="25" t="s" ph="1">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>711</v>
@@ -24712,7 +24725,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="25" t="s" ph="1">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>712</v>
@@ -24741,7 +24754,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="25" t="s" ph="1">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>258</v>
@@ -24770,7 +24783,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="25" t="s" ph="1">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>715</v>
@@ -24799,7 +24812,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>253</v>
@@ -24828,7 +24841,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="25" t="s" ph="1">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>250</v>
@@ -24857,7 +24870,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>719</v>
@@ -24886,7 +24899,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>618</v>
@@ -24915,7 +24928,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="25" t="s" ph="1">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>241</v>
@@ -24944,7 +24957,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>721</v>
@@ -24973,7 +24986,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="25" t="s" ph="1">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>235</v>
@@ -25002,7 +25015,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="25" t="s" ph="1">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>234</v>
@@ -25031,7 +25044,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="25" t="s" ph="1">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>231</v>
@@ -25060,9 +25073,9 @@
         <v>56</v>
       </c>
       <c r="B57" s="25" t="s" ph="1">
-        <v>835</v>
-      </c>
-      <c r="C57" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="C57" s="37" t="s">
         <v>727</v>
       </c>
       <c r="D57" s="34" t="s">
@@ -25089,7 +25102,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="25" t="s" ph="1">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>230</v>
@@ -25118,7 +25131,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>734</v>
@@ -25147,7 +25160,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="25" t="s" ph="1">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>736</v>
@@ -25176,7 +25189,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="25" t="s" ph="1">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>221</v>
@@ -25205,7 +25218,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="25" t="s" ph="1">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>737</v>
@@ -25234,7 +25247,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="25" t="s" ph="1">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>216</v>
@@ -25263,7 +25276,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>212</v>
@@ -25292,7 +25305,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="25" t="s" ph="1">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>209</v>
@@ -25321,7 +25334,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="25" t="s" ph="1">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>206</v>
@@ -25350,7 +25363,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="25" t="s" ph="1">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>742</v>
@@ -25379,7 +25392,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>201</v>
@@ -25408,7 +25421,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="25" t="s" ph="1">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>745</v>
@@ -25437,7 +25450,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="25" t="s" ph="1">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>196</v>
@@ -25466,7 +25479,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>192</v>
@@ -25495,7 +25508,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="25" t="s" ph="1">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>189</v>
@@ -25524,7 +25537,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="25" t="s" ph="1">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>185</v>
@@ -25553,7 +25566,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="25" t="s" ph="1">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C74" s="32" t="s">
         <v>749</v>
@@ -25582,7 +25595,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="25" t="s" ph="1">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>179</v>
@@ -25611,7 +25624,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="25" t="s" ph="1">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>175</v>
@@ -25640,7 +25653,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="25" t="s" ph="1">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>620</v>
@@ -25669,7 +25682,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="25" t="s" ph="1">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>751</v>
@@ -25698,7 +25711,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="25" t="s" ph="1">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>163</v>
@@ -25727,7 +25740,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="25" t="s" ph="1">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>160</v>
@@ -25756,7 +25769,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s" ph="1">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>753</v>
@@ -25785,7 +25798,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s" ph="1">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>154</v>
@@ -25814,7 +25827,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s" ph="1">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>755</v>
@@ -25843,7 +25856,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s" ph="1">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>147</v>
@@ -25872,7 +25885,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s" ph="1">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>143</v>
@@ -25901,7 +25914,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="25" t="s" ph="1">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C86" s="20" t="s">
         <v>139</v>
@@ -25930,7 +25943,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="25" t="s" ph="1">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>137</v>
@@ -25941,7 +25954,7 @@
       <c r="E87" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="F87" s="39" t="s">
+      <c r="F87" s="38" t="s">
         <v>757</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -25959,7 +25972,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="25" t="s" ph="1">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>134</v>
@@ -25988,7 +26001,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="25" t="s" ph="1">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>130</v>
@@ -26017,7 +26030,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="25" t="s" ph="1">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>128</v>
@@ -26046,7 +26059,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="25" t="s" ph="1">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>124</v>
@@ -26075,7 +26088,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="25" t="s" ph="1">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>120</v>
@@ -26104,7 +26117,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="25" t="s" ph="1">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>640</v>
@@ -26133,7 +26146,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>117</v>
@@ -26162,7 +26175,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="25" t="s" ph="1">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>113</v>
@@ -26191,7 +26204,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="25" t="s" ph="1">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>109</v>
@@ -26220,7 +26233,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="25" t="s" ph="1">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>106</v>
@@ -26249,7 +26262,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="25" t="s" ph="1">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>102</v>
@@ -26278,7 +26291,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="25" t="s" ph="1">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C99" s="20" t="s">
         <v>763</v>
@@ -26307,7 +26320,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="25" t="s" ph="1">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>98</v>
@@ -26336,7 +26349,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="25" t="s" ph="1">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>94</v>
@@ -26365,7 +26378,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="25" t="s" ph="1">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>90</v>
@@ -26394,7 +26407,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="25" t="s" ph="1">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>86</v>
@@ -26423,7 +26436,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="25" t="s" ph="1">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>82</v>
@@ -26452,7 +26465,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>79</v>
@@ -26481,7 +26494,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="25" t="s" ph="1">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>75</v>
@@ -26510,7 +26523,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="25" t="s" ph="1">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>71</v>
@@ -26539,7 +26552,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="29" t="s" ph="1">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>67</v>
@@ -26568,7 +26581,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="25" t="s" ph="1">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>63</v>
@@ -26597,7 +26610,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="25" t="s" ph="1">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>59</v>
@@ -26626,7 +26639,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="25" t="s" ph="1">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>56</v>
@@ -26655,7 +26668,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C112" s="33" t="s">
         <v>767</v>
@@ -26684,7 +26697,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>615</v>
@@ -26713,7 +26726,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="25" t="s" ph="1">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>51</v>
@@ -26742,7 +26755,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>47</v>
@@ -26771,7 +26784,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="25" t="s" ph="1">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>43</v>
@@ -26800,7 +26813,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="25" t="s" ph="1">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>41</v>
@@ -26808,7 +26821,7 @@
       <c r="D117" s="10" t="s">
         <v>771</v>
       </c>
-      <c r="E117" s="39" t="s">
+      <c r="E117" s="38" t="s">
         <v>772</v>
       </c>
       <c r="F117" s="6" t="s">
@@ -26829,7 +26842,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="25" t="s" ph="1">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>39</v>
@@ -26837,7 +26850,7 @@
       <c r="D118" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E118" s="38" t="s">
+      <c r="E118" s="37" t="s">
         <v>773</v>
       </c>
       <c r="F118" s="6" t="s">
@@ -26858,7 +26871,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="25" t="s" ph="1">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>35</v>
@@ -26887,7 +26900,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>34</v>
@@ -26916,7 +26929,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>27</v>
@@ -26945,7 +26958,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="25" t="s" ph="1">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>23</v>
@@ -26974,7 +26987,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="29" t="s" ph="1">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>607</v>
@@ -27003,7 +27016,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="25" t="s" ph="1">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>18</v>
@@ -27032,7 +27045,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="25" t="s" ph="1">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>14</v>
@@ -27061,7 +27074,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="25" t="s" ph="1">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>11</v>
